--- a/ChamadosDesenvolvimento_Melhorias.xlsx
+++ b/ChamadosDesenvolvimento_Melhorias.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Documents\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9509D639-F506-4A38-B11A-6A0124F29514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59EAFAE-F61F-46B1-9D33-EB91986E0DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6390" windowWidth="29040" windowHeight="15840" tabRatio="609" xr2:uid="{1EB61F71-09A8-42B6-AF18-E9E8B187025A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" xr2:uid="{1EB61F71-09A8-42B6-AF18-E9E8B187025A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamados_Desenvolvimento" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chamados_Desenvolvimento!$A$1:$I$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chamados_Desenvolvimento!$A$1:$I$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="191">
   <si>
     <t>Identificação do chamado</t>
   </si>
@@ -649,6 +649,47 @@
   </si>
   <si>
     <t>Retornou que o problema ainda ocorre periodicamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milton /Naubert </t>
+  </si>
+  <si>
+    <t>IMACE01</t>
+  </si>
+  <si>
+    <t>Os pedidos marítimos ASAP com data de antecipação de 360 (programados para o próximo embarque) não estão saindo com data de entrega, o que tem os barrado no EDI.</t>
+  </si>
+  <si>
+    <t>Exace04</t>
+  </si>
+  <si>
+    <t>exace04 gerando invoice em branco para processos realizados no exace01 após aumentar quantidade de digitos da quantidade embalada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	diferença no faturamento relatório de MC</t>
+  </si>
+  <si>
+    <t>Estou com diferença no faturamento do relatório CSACE04 - Margem Contribuição Real Representante .
+No relatório de dezembro o correto seria  12056.311,12 porém está com 11970.943,73.
+Fazendo o comparativo com outro relatório cheguei a conclusão que a diferença está somente no Total Geral do relatório</t>
+  </si>
+  <si>
+    <t>Milton / Naubert</t>
+  </si>
+  <si>
+    <t>Melhorias Relatório CTACE12</t>
+  </si>
+  <si>
+    <t>Erika do Amaral Rosa</t>
+  </si>
+  <si>
+    <t>Inclusão do campo Grupo de estoque para os itens faturados
+Com a inclusão deste campo será possível identificar quando ocorre erro no faturamento: Ex.: item revenda com CFOP de Venda
+Inclusão do campo quantidade
+Inclusão do campo valor unitário
+Será possível identificar quando ocorre erro no preço do produto. Ex.: mesmo item com preço de 1,00 e outro com 100,00
+Inclusão do campo cidade
+Hoje temos dificuldade para analisar quando a tributação esta incorreta. Ex.: algumas cidades da Zona Franca e Área de livre comercio possuem tributação diferenciada</t>
   </si>
 </sst>
 </file>
@@ -1200,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EC15D-45A4-4FF1-8741-0C54E659FBCD}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,8 +1751,8 @@
       <c r="F18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>13</v>
+      <c r="G18" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>129</v>
@@ -2110,7 +2151,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>27432</v>
       </c>
@@ -2133,7 +2174,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>27457</v>
       </c>
@@ -2160,7 +2201,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>27458</v>
       </c>
@@ -2173,14 +2214,12 @@
       <c r="D35" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>170</v>
-      </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>160</v>
+      <c r="G35" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>129</v>
@@ -2188,8 +2227,11 @@
       <c r="I35" s="19" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="K35" s="22">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>27459</v>
       </c>
@@ -2216,7 +2258,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>27462</v>
       </c>
@@ -2243,7 +2285,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>27463</v>
       </c>
@@ -2270,7 +2312,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>27464</v>
       </c>
@@ -2297,7 +2339,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>27505</v>
       </c>
@@ -2324,7 +2366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>27531</v>
       </c>
@@ -2351,7 +2393,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>27671</v>
       </c>
@@ -2378,7 +2420,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>27721</v>
       </c>
@@ -2405,7 +2447,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>27822</v>
       </c>
@@ -2432,7 +2474,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>28038</v>
       </c>
@@ -2447,16 +2489,19 @@
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>160</v>
+        <v>180</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="K45" s="22">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>28031</v>
       </c>
@@ -2473,7 +2518,7 @@
         <v>170</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>52</v>
@@ -2482,7 +2527,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>27983</v>
       </c>
@@ -2506,7 +2551,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>28105</v>
       </c>
@@ -2720,11 +2765,14 @@
       <c r="F56" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>13</v>
+      <c r="G56" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>129</v>
+      </c>
+      <c r="K56" s="22">
+        <v>44204</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2751,8 +2799,104 @@
         <v>129</v>
       </c>
     </row>
+    <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>28571</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>28579</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>28579</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>28646</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I42" xr:uid="{F2786FCB-28AC-4729-83FA-5DB1961B1A3B}"/>
+  <autoFilter ref="A1:I57" xr:uid="{F2786FCB-28AC-4729-83FA-5DB1961B1A3B}"/>
   <hyperlinks>
     <hyperlink ref="C43" r:id="rId1" tooltip="User" display="javascript:void(0);" xr:uid="{C69B1880-3B3B-4892-B121-DC9497DCCBBC}"/>
     <hyperlink ref="C50" r:id="rId2" tooltip="User" display="javascript:void(0);" xr:uid="{AFA9AB64-8F45-48D5-BBB5-A147881110A3}"/>

--- a/ChamadosDesenvolvimento_Melhorias.xlsx
+++ b/ChamadosDesenvolvimento_Melhorias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Documents\TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\TI\Desenvolvimento_Melhorias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59EAFAE-F61F-46B1-9D33-EB91986E0DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E61F3C4-DEFD-4D02-BB77-C689B87BF352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" xr2:uid="{1EB61F71-09A8-42B6-AF18-E9E8B187025A}"/>
+    <workbookView xWindow="51090" yWindow="-1035" windowWidth="29040" windowHeight="15840" tabRatio="609" xr2:uid="{1EB61F71-09A8-42B6-AF18-E9E8B187025A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamados_Desenvolvimento" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="202">
   <si>
     <t>Identificação do chamado</t>
   </si>
@@ -690,6 +690,44 @@
 Será possível identificar quando ocorre erro no preço do produto. Ex.: mesmo item com preço de 1,00 e outro com 100,00
 Inclusão do campo cidade
 Hoje temos dificuldade para analisar quando a tributação esta incorreta. Ex.: algumas cidades da Zona Franca e Área de livre comercio possuem tributação diferenciada</t>
+  </si>
+  <si>
+    <t>Publicar versão 2021 total de notas</t>
+  </si>
+  <si>
+    <t>Publicar versão 2021 do grafico de ferradura</t>
+  </si>
+  <si>
+    <t>Cadastro e atualização das filiais</t>
+  </si>
+  <si>
+    <t>Alison/Milton</t>
+  </si>
+  <si>
+    <t>criação dos templates paras as tvs de vendas</t>
+  </si>
+  <si>
+    <t>Nilson Lara</t>
+  </si>
+  <si>
+    <t>Alterar formato data emissão ftace018p</t>
+  </si>
+  <si>
+    <t>Emissão Pro Forma (Exace02)</t>
+  </si>
+  <si>
+    <t>Nicoly Ribeiro Alves</t>
+  </si>
+  <si>
+    <t>Bom dia,
+Não estou conseguindo emitir a Pro Forma do PV 11398894 para o cliente Schmersal Ibérica - 1001100.
+Já consultei a tradução do item e está certa. Para os outros PVs, consegui gerar normal, só para esse que não.
+Vocês podem analisar o que está acontecendo por gentileza?
+Obrigada,
+Nicoly Alves.</t>
+  </si>
+  <si>
+    <t>Naubert/Milton</t>
   </si>
 </sst>
 </file>
@@ -1241,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EC15D-45A4-4FF1-8741-0C54E659FBCD}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,11 +2854,14 @@
       <c r="F58" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>13</v>
+      <c r="G58" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>129</v>
+      </c>
+      <c r="K58" s="22">
+        <v>44208</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2894,6 +2935,164 @@
       <c r="H61" s="8" t="s">
         <v>129</v>
       </c>
+    </row>
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>28696</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>28697</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>28698</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>28699</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K65" s="22"/>
+    </row>
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>28623</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K66" s="22">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>28463</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I57" xr:uid="{F2786FCB-28AC-4729-83FA-5DB1961B1A3B}"/>

--- a/ChamadosDesenvolvimento_Melhorias.xlsx
+++ b/ChamadosDesenvolvimento_Melhorias.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\TI\Desenvolvimento_Melhorias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Documents\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E61F3C4-DEFD-4D02-BB77-C689B87BF352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28620395-938E-4E3C-85CB-F13B38614C68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51090" yWindow="-1035" windowWidth="29040" windowHeight="15840" tabRatio="609" xr2:uid="{1EB61F71-09A8-42B6-AF18-E9E8B187025A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" xr2:uid="{1EB61F71-09A8-42B6-AF18-E9E8B187025A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamados_Desenvolvimento" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chamados_Desenvolvimento!$A$1:$I$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chamados_Desenvolvimento!$A$1:$K$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="206">
   <si>
     <t>Identificação do chamado</t>
   </si>
@@ -728,6 +728,24 @@
   </si>
   <si>
     <t>Naubert/Milton</t>
+  </si>
+  <si>
+    <t>Relatório MC CSACE05</t>
+  </si>
+  <si>
+    <t>Por gentileza verificar o relatório acima o faturamento , este relatório tem o mesmo dados do CSACE04 que você corrigiu, a diferença entre esse relatórios é somente o custo, o faturamento tem que ser o mesmo do CSACE04.</t>
+  </si>
+  <si>
+    <t>Tela de Folow Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º Ponto: Indicadores
+Verificar as regras utilizadas para gerar os indicadores de “Follow UP’s Vencidos”, “Follow UP’s Vencendo Hoje” e “Follow UP’s Futuros”. Número muito expressivo de follow ups vencidos, puxando não só os em aberto, mas os atendidos totais também. O ideal é que somente apareçam follow ups em aberto, os cancelados e os convertidos em pedido devem ser desconsiderados
+2º Ponto: E-mail
+Inserir uma funcionalidade que permita o envio do follow realizado para um e-mail (ex: para externo, para o gerente), sendo este envio opcional e de decisão do interno.
+3º Ponto: Velocidade
+Atualmente a tele é bem lenta, verificar como atualizar.
+</t>
   </si>
 </sst>
 </file>
@@ -892,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -958,6 +976,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1279,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EC15D-45A4-4FF1-8741-0C54E659FBCD}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,10 +1322,10 @@
     <col min="6" max="6" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="9" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="14" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="9"/>
+    <col min="11" max="11" width="14.85546875" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,13 +1354,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>133</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -1361,11 +1388,11 @@
       <c r="H2" s="8">
         <v>2</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="J2" s="9">
         <v>1</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="89.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1420,7 @@
       <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1422,7 +1449,7 @@
       <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1449,7 +1476,7 @@
       <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1476,11 +1503,11 @@
       <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="J6" s="9">
         <v>2</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1506,7 +1533,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="19" t="s">
+      <c r="K7" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1535,7 +1562,7 @@
       <c r="H8" s="8">
         <v>0</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="K8" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1562,7 +1589,7 @@
       <c r="H9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="K9" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1587,7 +1614,7 @@
         <v>54</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -1610,7 +1637,7 @@
         <v>54</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1635,7 +1662,7 @@
       <c r="H12" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="K12" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1662,7 +1689,7 @@
       <c r="H13" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="K13" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1687,7 +1714,7 @@
         <v>54</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1712,7 +1739,7 @@
       <c r="H15" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="K15" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1739,7 +1766,7 @@
       <c r="H16" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="K16" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1768,7 +1795,7 @@
       <c r="H17" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="K17" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1795,7 +1822,7 @@
       <c r="H18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="K18" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1824,7 +1851,7 @@
       <c r="H19" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="K19" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1851,7 +1878,7 @@
       <c r="H20" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="K20" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1878,7 +1905,7 @@
       <c r="H21" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="K21" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1907,11 +1934,11 @@
       <c r="H22" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="K22" s="22">
+      <c r="I22" s="22">
         <v>44203</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -1939,11 +1966,11 @@
       <c r="H23" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="K23" s="22">
+      <c r="I23" s="22">
         <v>44203</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1969,7 +1996,7 @@
       <c r="H24" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="K24" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1996,7 +2023,7 @@
       <c r="H25" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="K25" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2023,7 +2050,7 @@
       <c r="H26" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="K26" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2050,7 +2077,7 @@
       <c r="H27" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="K27" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2077,7 +2104,7 @@
       <c r="H28" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="K28" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2104,7 +2131,7 @@
       <c r="H29" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="K29" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2131,7 +2158,7 @@
       <c r="H30" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="K30" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2158,7 +2185,7 @@
       <c r="H31" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="K31" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2185,7 +2212,7 @@
       <c r="H32" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="K32" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2210,7 +2237,7 @@
         <v>54</v>
       </c>
       <c r="H33" s="8"/>
-      <c r="I33" s="18"/>
+      <c r="K33" s="18"/>
     </row>
     <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
@@ -2235,7 +2262,7 @@
       <c r="H34" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="K34" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2262,11 +2289,11 @@
       <c r="H35" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="22">
+        <v>44204</v>
+      </c>
+      <c r="K35" s="19" t="s">
         <v>136</v>
-      </c>
-      <c r="K35" s="22">
-        <v>44204</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2292,7 +2319,7 @@
       <c r="H36" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="K36" s="19" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2319,7 +2346,7 @@
       <c r="H37" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="K37" s="19" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2346,7 +2373,7 @@
       <c r="H38" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="K38" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2373,7 +2400,7 @@
       <c r="H39" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="K39" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2400,7 +2427,7 @@
       <c r="H40" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="K40" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2427,7 +2454,7 @@
       <c r="H41" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="K41" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2454,7 +2481,7 @@
       <c r="H42" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="K42" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2481,7 +2508,7 @@
       <c r="H43" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="K43" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2508,7 +2535,7 @@
       <c r="H44" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="K44" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2535,7 +2562,7 @@
       <c r="H45" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K45" s="22">
+      <c r="I45" s="22">
         <v>44204</v>
       </c>
     </row>
@@ -2613,7 +2640,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>28126</v>
       </c>
@@ -2637,7 +2664,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>28136</v>
       </c>
@@ -2661,7 +2688,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>28150</v>
       </c>
@@ -2685,7 +2712,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>27388</v>
       </c>
@@ -2709,7 +2736,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>27850</v>
       </c>
@@ -2732,11 +2759,11 @@
       <c r="H53" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K53" s="22">
+      <c r="I53" s="22">
         <v>44203</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>28196</v>
       </c>
@@ -2760,7 +2787,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>28190</v>
       </c>
@@ -2786,7 +2813,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>28229</v>
       </c>
@@ -2809,11 +2836,11 @@
       <c r="H56" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K56" s="22">
+      <c r="I56" s="22">
         <v>44204</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>28466</v>
       </c>
@@ -2837,7 +2864,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>28571</v>
       </c>
@@ -2860,11 +2887,11 @@
       <c r="H58" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K58" s="22">
+      <c r="I58" s="22">
         <v>44208</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>28579</v>
       </c>
@@ -2888,7 +2915,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>28579</v>
       </c>
@@ -2905,14 +2932,14 @@
       <c r="F60" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>13</v>
+      <c r="G60" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>28646</v>
       </c>
@@ -2936,7 +2963,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>28696</v>
       </c>
@@ -2960,7 +2987,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>28697</v>
       </c>
@@ -2984,7 +3011,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>28698</v>
       </c>
@@ -3031,7 +3058,7 @@
       <c r="H65" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K65" s="22"/>
+      <c r="I65" s="22"/>
     </row>
     <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
@@ -3056,7 +3083,7 @@
       <c r="H66" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K66" s="22">
+      <c r="I66" s="22">
         <v>44210</v>
       </c>
     </row>
@@ -3077,22 +3104,67 @@
       <c r="F67" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>13</v>
+      <c r="G67" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="I67" s="22">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
+        <v>28828</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="G68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="8"/>
+      <c r="H68" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="25"/>
+    </row>
+    <row r="69" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
+        <v>28837</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I57" xr:uid="{F2786FCB-28AC-4729-83FA-5DB1961B1A3B}"/>

--- a/ChamadosDesenvolvimento_Melhorias.xlsx
+++ b/ChamadosDesenvolvimento_Melhorias.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Documents\TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\TI\Desenvolvimento_Melhorias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28620395-938E-4E3C-85CB-F13B38614C68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A08C2F-602F-4BD4-8723-891357FB0132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="609" xr2:uid="{1EB61F71-09A8-42B6-AF18-E9E8B187025A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="609" xr2:uid="{1EB61F71-09A8-42B6-AF18-E9E8B187025A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamados_Desenvolvimento" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chamados_Desenvolvimento!$A$1:$K$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chamados_Desenvolvimento!$A$1:$I$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="223">
   <si>
     <t>Identificação do chamado</t>
   </si>
@@ -746,6 +748,62 @@
 3º Ponto: Velocidade
 Atualmente a tele é bem lenta, verificar como atualizar.
 </t>
+  </si>
+  <si>
+    <t>Atualização de follow up Automatico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edson Paes Almeida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milton e equipe , conforme conversamos segue abaixo um resumo do erro que está ocorrendo na atualização automática do follow-up ( DATAS )  , segue abaixo as telas que eu utilizo para realizar a atualização automática.
+ </t>
+  </si>
+  <si>
+    <t>Criar planilha em Excel dos itens que sofreram alteração de alíquota de ICMS de 12% para 13,30%</t>
+  </si>
+  <si>
+    <t>Christian Borba Muller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+conforme conversado favor criar planilha em Excel contendo código e descrição dos itens que sofreram alteração de alíquota de ICMS de 12% para 13,30%.</t>
+  </si>
+  <si>
+    <t>Alteração CCACE02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Por gentileza, incluir os campos IPI INCLUSO e MOEDA no follow up ccace02 NACIONAL.
+No follow up ccace02 IMPORTADO alterar o preço para aquele que está cadastrado na cc0300 (na moeda original, sem realizar conversões) e incluir o campo MOEDA também.
+</t>
+  </si>
+  <si>
+    <t>Criar Listagem - Itens Faturáveis</t>
+  </si>
+  <si>
+    <t>Por gentileza, poderiam criar uma listagem (QG) dos itens faturáveis daqueles NCM's que alteraram a legislação do ICMS para 13,3% nas vendas para SP?</t>
+  </si>
+  <si>
+    <t>Solicitado para adicionar alguns filtros e informação de grupo de estoque</t>
+  </si>
+  <si>
+    <t>Aguardando Retorno TOTVS</t>
+  </si>
+  <si>
+    <t>Alterações no PDF</t>
+  </si>
+  <si>
+    <t>Cristina solicitou a correção de uma palavra no PDF do orçamento e a inclusão de uma frase, detalhado no word.</t>
+  </si>
+  <si>
+    <t>Alison / Milton</t>
+  </si>
+  <si>
+    <t>ajustar template total notas - aba venda diaria</t>
+  </si>
+  <si>
+    <t>Cristina solicitou para que seja realizado uma modificação na divisão das filiais na aba de Venda Diaria no template TotalNotas</t>
   </si>
 </sst>
 </file>
@@ -874,7 +932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -906,11 +964,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -985,6 +1056,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1306,10 +1392,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EC15D-45A4-4FF1-8741-0C54E659FBCD}">
-  <dimension ref="A1:L69"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,8 +1469,8 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>52</v>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H2" s="8">
         <v>2</v>
@@ -1424,7 +1511,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="141" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>24634</v>
       </c>
@@ -1451,7 +1538,7 @@
       </c>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>24629</v>
       </c>
@@ -1478,7 +1565,7 @@
       </c>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>24944</v>
       </c>
@@ -1510,7 +1597,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>24971</v>
       </c>
@@ -1537,7 +1624,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>24991</v>
       </c>
@@ -1593,7 +1680,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>24847</v>
       </c>
@@ -1616,7 +1703,7 @@
       <c r="H10" s="8"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" ht="57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>24902</v>
       </c>
@@ -1639,7 +1726,7 @@
       <c r="H11" s="8"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>25080</v>
       </c>
@@ -1666,7 +1753,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>25160</v>
       </c>
@@ -1693,7 +1780,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>25161</v>
       </c>
@@ -1716,7 +1803,7 @@
       <c r="H14" s="8"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>27394</v>
       </c>
@@ -1743,7 +1830,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>27662</v>
       </c>
@@ -1770,7 +1857,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>25913</v>
       </c>
@@ -1799,7 +1886,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>26023</v>
       </c>
@@ -1826,7 +1913,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>26925</v>
       </c>
@@ -1855,7 +1942,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>27036</v>
       </c>
@@ -1882,7 +1969,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>27393</v>
       </c>
@@ -1929,13 +2016,13 @@
         <v>8</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>129</v>
       </c>
       <c r="I22" s="22">
-        <v>44203</v>
+        <v>44217</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>135</v>
@@ -1960,14 +2047,14 @@
       <c r="F23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>52</v>
+      <c r="G23" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>129</v>
       </c>
       <c r="I23" s="22">
-        <v>44203</v>
+        <v>44218</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>135</v>
@@ -1990,8 +2077,8 @@
       <c r="F24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>13</v>
+      <c r="G24" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>129</v>
@@ -2054,7 +2141,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>25198</v>
       </c>
@@ -2081,7 +2168,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>25755</v>
       </c>
@@ -2108,7 +2195,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>25850</v>
       </c>
@@ -2153,7 +2240,7 @@
         <v>53</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>129</v>
@@ -2189,7 +2276,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>27371</v>
       </c>
@@ -2216,7 +2303,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>27432</v>
       </c>
@@ -2239,7 +2326,7 @@
       <c r="H33" s="8"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>27457</v>
       </c>
@@ -2266,7 +2353,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>27458</v>
       </c>
@@ -2323,7 +2410,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>27462</v>
       </c>
@@ -2350,7 +2437,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>27463</v>
       </c>
@@ -2377,7 +2464,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>27464</v>
       </c>
@@ -2404,7 +2491,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>27505</v>
       </c>
@@ -2431,7 +2518,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>27531</v>
       </c>
@@ -2458,7 +2545,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>27671</v>
       </c>
@@ -2485,7 +2572,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>27721</v>
       </c>
@@ -2512,7 +2599,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>27822</v>
       </c>
@@ -2539,7 +2626,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>28038</v>
       </c>
@@ -2592,7 +2679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>27983</v>
       </c>
@@ -2616,7 +2703,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>28105</v>
       </c>
@@ -2640,7 +2727,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>28126</v>
       </c>
@@ -2664,7 +2751,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>28136</v>
       </c>
@@ -2682,13 +2769,13 @@
         <v>53</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>28150</v>
       </c>
@@ -2730,13 +2817,13 @@
         <v>53</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>27850</v>
       </c>
@@ -2763,7 +2850,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>28196</v>
       </c>
@@ -2813,7 +2900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="231" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>28229</v>
       </c>
@@ -2840,7 +2927,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>28466</v>
       </c>
@@ -2857,14 +2944,17 @@
       <c r="F57" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>160</v>
+      <c r="G57" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I57" s="22">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>28571</v>
       </c>
@@ -2915,7 +3005,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>28579</v>
       </c>
@@ -2932,8 +3022,8 @@
       <c r="F60" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>52</v>
+      <c r="G60" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>129</v>
@@ -3004,8 +3094,8 @@
       <c r="F63" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>13</v>
+      <c r="G63" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>129</v>
@@ -3026,7 +3116,7 @@
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>13</v>
@@ -3060,7 +3150,7 @@
       </c>
       <c r="I65" s="22"/>
     </row>
-    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>28623</v>
       </c>
@@ -3087,7 +3177,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>28463</v>
       </c>
@@ -3129,8 +3219,8 @@
       <c r="F68" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>13</v>
+      <c r="G68" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>129</v>
@@ -3156,8 +3246,8 @@
       <c r="F69" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>13</v>
+      <c r="G69" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>129</v>
@@ -3166,8 +3256,178 @@
       <c r="J69" s="24"/>
       <c r="K69" s="25"/>
     </row>
+    <row r="70" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="23">
+        <v>28902</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="25"/>
+    </row>
+    <row r="71" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
+        <v>28925</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I71" s="26">
+        <v>44217</v>
+      </c>
+      <c r="J71" s="24"/>
+      <c r="K71" s="25"/>
+    </row>
+    <row r="72" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
+        <v>28928</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="25"/>
+    </row>
+    <row r="73" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="27">
+        <v>28931</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="I73" s="26">
+        <v>44215</v>
+      </c>
+      <c r="J73" s="24"/>
+      <c r="K73" s="25"/>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
+        <v>29088</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>29089</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I57" xr:uid="{F2786FCB-28AC-4729-83FA-5DB1961B1A3B}"/>
+  <autoFilter ref="A1:I75" xr:uid="{F2786FCB-28AC-4729-83FA-5DB1961B1A3B}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Aberto"/>
+        <filter val="Aguardando Retorno"/>
+        <filter val="Andamento"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C43" r:id="rId1" tooltip="User" display="javascript:void(0);" xr:uid="{C69B1880-3B3B-4892-B121-DC9497DCCBBC}"/>
     <hyperlink ref="C50" r:id="rId2" tooltip="User" display="javascript:void(0);" xr:uid="{AFA9AB64-8F45-48D5-BBB5-A147881110A3}"/>
